--- a/biology/Neurosciences/Commotion_cérébrale/Commotion_cérébrale.xlsx
+++ b/biology/Neurosciences/Commotion_cérébrale/Commotion_cérébrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commotion_c%C3%A9r%C3%A9brale</t>
+          <t>Commotion_cérébrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La commotion cérébrale, ou traumatisme crânien léger (TCM), est généralement considérée comme une contusion traumatique affectant temporairement le fonctionnement du cerveau[6]. Les symptômes peuvent inclure une perte de connaissance (LOC), une perte de mémoire, une céphalée, des difficultés de réflexion, de concentration ou d'équilibre, des nausées, une vision floue, des perturbations de sommeil et une altération de d'humeur[7]. 
-Ces symptômes peuvent apparaître immédiatement ou quelques jours après la blessure[7]. Une commotion cérébrale doit être suspectée quand une personne se cogne la tête, indirectement ou directement, et présente l'un des symptômes d’une commotion cérébrale[8]. Il n'est pas rare que les symptômes durent 2 semaines chez l'adulte et 4 semaines chez l'enfant[9],[3]. Moins de 10 % des commotions cérébrales liées au sport chez les enfants sont associées à une perte de conscience[10]. 
-Les causes courantes sont les collisions de véhicules à moteur, les chutes, les blessures sportives et les accidents de bicyclette[1],[2]. Les facteurs de risque comprennent la consommation d’alcool et des antécédents de commotion cérébrale[9],[11]. Le mécanisme de la blessure implique soit un coup direct à la tête ou soit des forces exercées ailleurs sur le corps qui sont transmises à la tête[9]. On pense qu'il en résulte un dysfonctionnement des neurones, en raison d'une augmentation des besoins en glucose et d'une insuffisance de l'apport sanguin[3]. Un diagnostic différentiel complet est nécessaire pour exclure les traumatismes crâniens mettant en jeu le pronostic vital, les blessures au cou et les problèmes neurologiques[4],[12]. Un score de 13 à 15 sur l'échelle de coma de Glasgow, une perte de conscience de moins de 30 minutes et une perte de mémoire de moins de 24 heures peuvent être utilisés pour exclure des lésions cérébrales traumatiques modérées ou graves[4]. Une imagerie diagnostique telle qu'un scanner ou une IRM peut également être nécessaire pour exclure de graves blessures à la tête[12]. L’imagerie de routine n’est pas nécessaire pour diagnostiquer une commotion cérébrale[13].
-La prévention des commotions cérébrales comprend le port d'un casque de protection, notamment à vélo et à moto[1]. Le traitement consiste en un repos physique et cognitif pendant 1 à 2 jours, avec un retour progressif aux activités, à l'école et au travail[5],[3],[14]. Des périodes de repos prolongées peuvent ralentir la récupération et entrainer une dépression et une anxiété accrues[3]. Le paracétamol (acétaminophène) ou les AINS peuvent être recommandés pour soulager les maux de tête[3]. La physiothérapie peut être efficace dans le traitement des troubles persistants d'équilibre, alors que la thérapie cognitivo-comportementale est plus appropriée pour gérer les fluctuations d’humeur[3]. Les preuves manquent quant à l’efficacité de l'oxygénothérapie hyperbare et de la chiropratique[3]. 
-Dans le monde, on estime que les commotions cérébrales affectent plus de 3,5 personnes sur 1 000 par an[15]. Elles sont considérées comme des lésions cérébrales traumatiques légères et constituent le type de traumatisme crânien le plus fréquent[1],[15]. Les hommes et les jeunes adultes sont les plus souvent touchés[1],[15]. Les résultats sont généralement bons[16]. Une autre commotion cérébrale, survenant avant que les symptômes de la précédente ne soient dissipés, est associée à des résultats inférieurs[17],[18]. Les commotions cérébrales répétées peuvent également augmenter le risque plus tard dans la vie d'encéphalopathie traumatique chronique, de maladie de Parkinson et de dépression[19].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commotion cérébrale, ou traumatisme crânien léger (TCM), est généralement considérée comme une contusion traumatique affectant temporairement le fonctionnement du cerveau. Les symptômes peuvent inclure une perte de connaissance (LOC), une perte de mémoire, une céphalée, des difficultés de réflexion, de concentration ou d'équilibre, des nausées, une vision floue, des perturbations de sommeil et une altération de d'humeur. 
+Ces symptômes peuvent apparaître immédiatement ou quelques jours après la blessure. Une commotion cérébrale doit être suspectée quand une personne se cogne la tête, indirectement ou directement, et présente l'un des symptômes d’une commotion cérébrale. Il n'est pas rare que les symptômes durent 2 semaines chez l'adulte et 4 semaines chez l'enfant,. Moins de 10 % des commotions cérébrales liées au sport chez les enfants sont associées à une perte de conscience. 
+Les causes courantes sont les collisions de véhicules à moteur, les chutes, les blessures sportives et les accidents de bicyclette,. Les facteurs de risque comprennent la consommation d’alcool et des antécédents de commotion cérébrale,. Le mécanisme de la blessure implique soit un coup direct à la tête ou soit des forces exercées ailleurs sur le corps qui sont transmises à la tête. On pense qu'il en résulte un dysfonctionnement des neurones, en raison d'une augmentation des besoins en glucose et d'une insuffisance de l'apport sanguin. Un diagnostic différentiel complet est nécessaire pour exclure les traumatismes crâniens mettant en jeu le pronostic vital, les blessures au cou et les problèmes neurologiques,. Un score de 13 à 15 sur l'échelle de coma de Glasgow, une perte de conscience de moins de 30 minutes et une perte de mémoire de moins de 24 heures peuvent être utilisés pour exclure des lésions cérébrales traumatiques modérées ou graves. Une imagerie diagnostique telle qu'un scanner ou une IRM peut également être nécessaire pour exclure de graves blessures à la tête. L’imagerie de routine n’est pas nécessaire pour diagnostiquer une commotion cérébrale.
+La prévention des commotions cérébrales comprend le port d'un casque de protection, notamment à vélo et à moto. Le traitement consiste en un repos physique et cognitif pendant 1 à 2 jours, avec un retour progressif aux activités, à l'école et au travail. Des périodes de repos prolongées peuvent ralentir la récupération et entrainer une dépression et une anxiété accrues. Le paracétamol (acétaminophène) ou les AINS peuvent être recommandés pour soulager les maux de tête. La physiothérapie peut être efficace dans le traitement des troubles persistants d'équilibre, alors que la thérapie cognitivo-comportementale est plus appropriée pour gérer les fluctuations d’humeur. Les preuves manquent quant à l’efficacité de l'oxygénothérapie hyperbare et de la chiropratique. 
+Dans le monde, on estime que les commotions cérébrales affectent plus de 3,5 personnes sur 1 000 par an. Elles sont considérées comme des lésions cérébrales traumatiques légères et constituent le type de traumatisme crânien le plus fréquent,. Les hommes et les jeunes adultes sont les plus souvent touchés,. Les résultats sont généralement bons. Une autre commotion cérébrale, survenant avant que les symptômes de la précédente ne soient dissipés, est associée à des résultats inférieurs,. Les commotions cérébrales répétées peuvent également augmenter le risque plus tard dans la vie d'encéphalopathie traumatique chronique, de maladie de Parkinson et de dépression.
 </t>
         </is>
       </c>
